--- a/idf.xlsx
+++ b/idf.xlsx
@@ -1377,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MA2"/>
+  <dimension ref="A1:LZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,1026 +1385,1025 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:339">
-      <c r="A1" s="1" t="s"/>
+    <row r="1" spans="1:338">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="HM1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="HN1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="HO1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="HP1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="HQ1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="HR1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="HT1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="HU1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="HX1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="HY1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="IB1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="IC1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="ID1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="IE1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="IF1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="IG1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="IH1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="II1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="IJ1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="IK1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="IL1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="IM1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="IN1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="IO1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="IP1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="IQ1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="IR1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="IS1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="IT1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="IU1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="IV1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="IW1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="IX1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="IY1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="IZ1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="JA1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="JB1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="JC1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="JD1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="JE1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="JF1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="JG1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="JH1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JI1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="JJ1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="JK1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="JL1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="JM1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="JN1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="JO1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="JP1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="JQ1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="JR1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="JS1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="JT1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="JU1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="JV1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="JW1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="JX1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="JY1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="JZ1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="KA1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="KB1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="KC1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="KD1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="KE1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="KF1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="KG1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="KH1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="KI1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="KJ1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="KK1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="KL1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="KM1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="KN1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="KO1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="KP1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="KQ1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="KR1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="KS1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="KT1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="KU1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="KV1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="KW1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="KX1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="KY1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="KZ1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="LA1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="LB1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="LC1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="LD1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="LE1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="LF1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="LG1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="LH1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="LI1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="LJ1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="LK1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="LL1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="LM1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="LN1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="LO1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="LP1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="LQ1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="LR1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="LS1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="LT1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="LU1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="LV1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="LW1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="LX1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="LY1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="LZ1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="MA1" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:339">
+    <row r="2" spans="1:338">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.6989700043360189</v>
       </c>
       <c r="B2" t="n">
         <v>0.6989700043360189</v>
@@ -2413,979 +2412,979 @@
         <v>0.6989700043360189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.09691001300805642</v>
       </c>
       <c r="E2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.09691001300805642</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.6989700043360189</v>
       </c>
       <c r="AE2" t="n">
         <v>0.09691001300805642</v>
       </c>
       <c r="AF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="FJ2" t="n">
         <v>0.09691001300805642</v>
       </c>
-      <c r="AG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="BE2" t="n">
+      <c r="FK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FM2" t="n">
         <v>0.2218487496163564</v>
       </c>
-      <c r="BF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DK2" t="n">
+      <c r="FN2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GH2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DO2" t="n">
+      <c r="GI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GU2" t="n">
         <v>0.2218487496163564</v>
       </c>
-      <c r="DP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DV2" t="n">
+      <c r="GV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HA2" t="n">
         <v>0.2218487496163564</v>
       </c>
-      <c r="DW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="FK2" t="n">
+      <c r="HB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>0.2218487496163564</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>0.6989700043360189</v>
+      </c>
+      <c r="LL2" t="n">
         <v>0.09691001300805642</v>
       </c>
-      <c r="FL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GI2" t="n">
+      <c r="LM2" t="n">
         <v>0</v>
       </c>
-      <c r="GJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0.2218487496163564</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0.6989700043360189</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0.09691001300805642</v>
-      </c>
       <c r="LN2" t="n">
-        <v>0</v>
+        <v>0.3979400086720376</v>
       </c>
       <c r="LO2" t="n">
         <v>0.3979400086720376</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.6989700043360189</v>
       </c>
       <c r="LQ2" t="n">
         <v>0.6989700043360189</v>
@@ -3403,21 +3402,18 @@
         <v>0.6989700043360189</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.3979400086720376</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.6989700043360189</v>
       </c>
       <c r="LX2" t="n">
         <v>0.6989700043360189</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.3979400086720376</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="MA2" t="n">
         <v>0.3979400086720376</v>
       </c>
     </row>

--- a/idf.xlsx
+++ b/idf.xlsx
@@ -2403,1018 +2403,1018 @@
     </row>
     <row r="2" spans="1:338">
       <c r="A2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09691001300805642</v>
+        <v>0.7201593034059569</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.09691001300805642</v>
+        <v>0.7201593034059569</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.09691001300805642</v>
+        <v>0.7201593034059569</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>0.7160033436347992</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.09691001300805642</v>
+        <v>0.7201593034059569</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GH2" t="n">
-        <v>0</v>
+        <v>0.7160033436347992</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GS2" t="n">
-        <v>0</v>
+        <v>0.7160033436347992</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="II2" t="n">
-        <v>0</v>
+        <v>0.7160033436347992</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.2218487496163564</v>
+        <v>0.7269987279362623</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.09691001300805642</v>
+        <v>0.7201593034059569</v>
       </c>
       <c r="LM2" t="n">
-        <v>0</v>
+        <v>0.7160033436347992</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.6989700043360189</v>
+        <v>0.7781512503836436</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.3979400086720376</v>
+        <v>0.7403626894942439</v>
       </c>
     </row>
   </sheetData>
